--- a/7092_orders.xlsx
+++ b/7092_orders.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t xml:space="preserve">Delivery</t>
   </si>
@@ -29,6 +29,9 @@
     <t xml:space="preserve">Accounting Number</t>
   </si>
   <si>
+    <t xml:space="preserve">3bMonday</t>
+  </si>
+  <si>
     <t xml:space="preserve">2bMonday</t>
   </si>
   <si>
@@ -65,21 +68,21 @@
     <t xml:space="preserve">Total</t>
   </si>
   <si>
-    <t xml:space="preserve">Doses/Breed</t>
-  </si>
-  <si>
     <t xml:space="preserve">THS</t>
   </si>
   <si>
+    <t xml:space="preserve">Batch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BARWICK SOW FARM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MWF</t>
+  </si>
+  <si>
     <t xml:space="preserve">Weekly</t>
   </si>
   <si>
-    <t xml:space="preserve">BARWICK SOW FARM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MWF</t>
-  </si>
-  <si>
     <t xml:space="preserve">BLUE FARM/LEWIS UPCHURCH</t>
   </si>
   <si>
@@ -92,127 +95,115 @@
     <t xml:space="preserve">ECO SYSTEMS 1 SOW</t>
   </si>
   <si>
-    <t xml:space="preserve">ENGLISH SOW FARM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENVIRO TECH 1 SOW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENVIRO TECH 2 SOW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ENVIRO TECH 3 SOW</t>
+    <t xml:space="preserve">SPEDDING, JEFF SOW</t>
   </si>
   <si>
     <t xml:space="preserve">Farm 31111 Farrowing</t>
   </si>
   <si>
-    <t xml:space="preserve">FARM 3135</t>
+    <t xml:space="preserve">WEE PIGS INC ( farm 2804)</t>
   </si>
   <si>
     <t xml:space="preserve">Farm 35011 Farrowing</t>
   </si>
   <si>
+    <t xml:space="preserve">Farm 35101/BOC 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Farm 35151/BOC 15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Farm 37931</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Farm 5578</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Farm 57011 Farrowing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Farm 57041 Farrowing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Farm 57821 Farrowing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FUNSTON FARMS 38671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Farm 37221 Farrowing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HAIRR 1 SOW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HERITAGE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hope Sow #3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INGOLD SOW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Farm 35091 Farrowing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LISBON 1 SOW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LOCKLEAR, CHARLES SOW</t>
+  </si>
+  <si>
     <t xml:space="preserve">Farm 35051 Farrowing</t>
   </si>
   <si>
-    <t xml:space="preserve">Farm 35091 Farrowing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Farm 35151/BOC 15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Batch</t>
+    <t xml:space="preserve">RIVERFRONT 1 SOW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RIVERFRONT 2 SOW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Farm 37061 Farrowing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAMPSON SOW FARM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEA GRO SOW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEAWRIGHT SOW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SQUIRES SOW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STERLINGS FARMS LLC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T &amp; M SOW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAYLOR'S BRIDGE SOW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRIAD 1 SOW</t>
   </si>
   <si>
     <t xml:space="preserve">TRIAD 2 SOW</t>
   </si>
   <si>
-    <t xml:space="preserve">Farm 37061 Farrowing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Farm 37221 Farrowing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Farm 37311/BOC 31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Farm 37931</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Farm 55781 Farrowing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Farm 57031 Farrowing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Farm 57041 Farrowing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FARM 57101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Farm 57111 Farrowing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FUNSTON FARMS 38671</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GREEN MEADOWS SOW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HAIRR 1 SOW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HERITAGE SOW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JENKINS SOW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LISBON 1 SOW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LOCKLEAR, CHARLES SOW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RIVERFRONT 2 SOW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NORSHAN I</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PHILLIPS PARTNERS (FARM 2803)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRIAD 1 SOW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SEAWRIGHT SOW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SPEDDING, JEFF SOW (Sanders &amp; Davis)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RIVERFRONT 1 SOW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">STERLINGS FARMS LLC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T &amp; M SOW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAYLOR'S BRIDGE SOW</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TURNER SOW FARM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WEE PIGS INC ( farm 2804)</t>
+    <t xml:space="preserve">TRIUMPH ASSOC LLC</t>
   </si>
   <si>
     <t xml:space="preserve">WHITE FARM/HOKE LIVESTOCK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Farm 6255 Sow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAIN</t>
   </si>
 </sst>
 </file>
@@ -549,26 +540,26 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
     <col min="1" max="1" width="8.71" hidden="0" customWidth="1"/>
     <col min="2" max="2" width="10.71" hidden="0" customWidth="1"/>
     <col min="3" max="3" width="14.71" hidden="0" customWidth="1"/>
-    <col min="4" max="4" width="40.71" hidden="0" customWidth="1"/>
+    <col min="4" max="4" width="25.71" hidden="0" customWidth="1"/>
     <col min="5" max="5" width="17.71" hidden="0" customWidth="1"/>
     <col min="6" max="6" width="8.71" hidden="0" customWidth="1"/>
-    <col min="7" max="7" width="9.71" hidden="0" customWidth="1"/>
+    <col min="7" max="7" width="8.71" hidden="0" customWidth="1"/>
     <col min="8" max="8" width="9.71" hidden="0" customWidth="1"/>
-    <col min="9" max="9" width="11.71" hidden="0" customWidth="1"/>
+    <col min="9" max="9" width="9.71" hidden="0" customWidth="1"/>
     <col min="10" max="10" width="11.71" hidden="0" customWidth="1"/>
-    <col min="11" max="11" width="10.71" hidden="0" customWidth="1"/>
+    <col min="11" max="11" width="11.71" hidden="0" customWidth="1"/>
     <col min="12" max="12" width="10.71" hidden="0" customWidth="1"/>
-    <col min="13" max="13" width="8.71" hidden="0" customWidth="1"/>
+    <col min="13" max="13" width="10.71" hidden="0" customWidth="1"/>
     <col min="14" max="14" width="8.71" hidden="0" customWidth="1"/>
-    <col min="15" max="15" width="10.71" hidden="0" customWidth="1"/>
+    <col min="15" max="15" width="8.71" hidden="0" customWidth="1"/>
     <col min="16" max="16" width="10.71" hidden="0" customWidth="1"/>
-    <col min="17" max="17" width="5.71" hidden="0" customWidth="1"/>
-    <col min="18" max="18" width="11.71" hidden="0" customWidth="1"/>
+    <col min="17" max="17" width="10.71" hidden="0" customWidth="1"/>
+    <col min="18" max="18" width="5.71" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -645,26 +636,24 @@
       </c>
       <c r="F2"/>
       <c r="G2"/>
-      <c r="H2" t="n">
-        <v>115</v>
-      </c>
-      <c r="I2"/>
+      <c r="H2"/>
+      <c r="I2" t="n">
+        <v>70</v>
+      </c>
       <c r="J2"/>
       <c r="K2"/>
-      <c r="L2" t="n">
-        <v>116</v>
-      </c>
-      <c r="M2"/>
+      <c r="L2"/>
+      <c r="M2" t="n">
+        <v>560</v>
+      </c>
       <c r="N2"/>
       <c r="O2"/>
-      <c r="P2" t="n">
-        <v>125</v>
-      </c>
+      <c r="P2"/>
       <c r="Q2" t="n">
-        <v>356</v>
+        <v>560</v>
       </c>
       <c r="R2" t="n">
-        <v>2.32679738562092</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="3">
@@ -675,36 +664,34 @@
         <v>7092</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E3" t="n">
         <v>58041</v>
       </c>
-      <c r="F3" t="n">
-        <v>170</v>
-      </c>
-      <c r="G3"/>
+      <c r="F3"/>
+      <c r="G3" t="n">
+        <v>147</v>
+      </c>
       <c r="H3"/>
       <c r="I3"/>
-      <c r="J3" t="n">
-        <v>45</v>
-      </c>
-      <c r="K3"/>
+      <c r="J3"/>
+      <c r="K3" t="n">
+        <v>30</v>
+      </c>
       <c r="L3"/>
       <c r="M3"/>
-      <c r="N3" t="n">
-        <v>60</v>
-      </c>
-      <c r="O3"/>
+      <c r="N3"/>
+      <c r="O3" t="n">
+        <v>90</v>
+      </c>
       <c r="P3"/>
-      <c r="Q3" t="n">
-        <v>275</v>
-      </c>
+      <c r="Q3"/>
       <c r="R3" t="n">
-        <v>2.52293577981651</v>
+        <v>267</v>
       </c>
     </row>
     <row r="4">
@@ -715,36 +702,34 @@
         <v>7092</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E4" t="n">
         <v>68011</v>
       </c>
-      <c r="F4" t="n">
-        <v>25</v>
-      </c>
-      <c r="G4"/>
+      <c r="F4"/>
+      <c r="G4" t="n">
+        <v>28</v>
+      </c>
       <c r="H4"/>
       <c r="I4"/>
-      <c r="J4" t="n">
-        <v>14</v>
-      </c>
-      <c r="K4"/>
+      <c r="J4"/>
+      <c r="K4" t="n">
+        <v>33</v>
+      </c>
       <c r="L4"/>
       <c r="M4"/>
-      <c r="N4" t="n">
-        <v>88</v>
-      </c>
-      <c r="O4"/>
+      <c r="N4"/>
+      <c r="O4" t="n">
+        <v>73</v>
+      </c>
       <c r="P4"/>
-      <c r="Q4" t="n">
-        <v>127</v>
-      </c>
+      <c r="Q4"/>
       <c r="R4" t="n">
-        <v>2.11666666666667</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5">
@@ -755,36 +740,34 @@
         <v>7092</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E5" t="n">
         <v>6188</v>
       </c>
-      <c r="F5" t="n">
-        <v>50</v>
-      </c>
-      <c r="G5"/>
+      <c r="F5"/>
+      <c r="G5" t="n">
+        <v>30</v>
+      </c>
       <c r="H5"/>
       <c r="I5"/>
-      <c r="J5" t="n">
-        <v>22</v>
-      </c>
-      <c r="K5"/>
+      <c r="J5"/>
+      <c r="K5" t="n">
+        <v>20</v>
+      </c>
       <c r="L5"/>
       <c r="M5"/>
-      <c r="N5" t="n">
-        <v>68</v>
-      </c>
-      <c r="O5"/>
+      <c r="N5"/>
+      <c r="O5" t="n">
+        <v>64</v>
+      </c>
       <c r="P5"/>
-      <c r="Q5" t="n">
-        <v>140</v>
-      </c>
+      <c r="Q5"/>
       <c r="R5" t="n">
-        <v>2.45614035087719</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6">
@@ -795,114 +778,110 @@
         <v>7092</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E6" t="n">
         <v>2143</v>
       </c>
       <c r="F6"/>
       <c r="G6"/>
-      <c r="H6" t="n">
-        <v>113</v>
-      </c>
-      <c r="I6"/>
+      <c r="H6"/>
+      <c r="I6" t="n">
+        <v>200</v>
+      </c>
       <c r="J6"/>
       <c r="K6"/>
-      <c r="L6" t="n">
-        <v>94</v>
-      </c>
-      <c r="M6"/>
+      <c r="L6"/>
+      <c r="M6" t="n">
+        <v>454</v>
+      </c>
       <c r="N6"/>
       <c r="O6"/>
-      <c r="P6" t="n">
-        <v>129</v>
-      </c>
+      <c r="P6"/>
       <c r="Q6" t="n">
-        <v>336</v>
+        <v>720</v>
       </c>
       <c r="R6" t="n">
-        <v>1.85635359116022</v>
+        <v>1374</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B7" t="n">
         <v>7092</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E7" t="n">
-        <v>2128</v>
+        <v>32961</v>
       </c>
       <c r="F7"/>
-      <c r="G7"/>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+      <c r="G7" t="n">
+        <v>130</v>
+      </c>
+      <c r="H7"/>
       <c r="I7"/>
       <c r="J7"/>
-      <c r="K7"/>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
+      <c r="K7" t="n">
+        <v>22</v>
+      </c>
+      <c r="L7"/>
       <c r="M7"/>
       <c r="N7"/>
-      <c r="O7"/>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0</v>
-      </c>
-      <c r="R7"/>
+      <c r="O7" t="n">
+        <v>96</v>
+      </c>
+      <c r="P7"/>
+      <c r="Q7"/>
+      <c r="R7" t="n">
+        <v>248</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B8" t="n">
         <v>7092</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E8" t="n">
-        <v>2155</v>
+        <v>31111</v>
       </c>
       <c r="F8"/>
-      <c r="G8"/>
-      <c r="H8" t="n">
-        <v>65</v>
-      </c>
+      <c r="G8" t="n">
+        <v>100</v>
+      </c>
+      <c r="H8"/>
       <c r="I8"/>
       <c r="J8"/>
-      <c r="K8"/>
-      <c r="L8" t="n">
-        <v>119</v>
-      </c>
+      <c r="K8" t="n">
+        <v>86</v>
+      </c>
+      <c r="L8"/>
       <c r="M8"/>
       <c r="N8"/>
-      <c r="O8"/>
-      <c r="P8" t="n">
-        <v>160</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>344</v>
-      </c>
+      <c r="O8" t="n">
+        <v>52</v>
+      </c>
+      <c r="P8"/>
+      <c r="Q8"/>
       <c r="R8" t="n">
-        <v>2.03550295857988</v>
+        <v>238</v>
       </c>
     </row>
     <row r="9">
@@ -913,36 +892,34 @@
         <v>7092</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E9" t="n">
-        <v>2158</v>
+        <v>28041</v>
       </c>
       <c r="F9"/>
       <c r="G9"/>
-      <c r="H9" t="n">
-        <v>96</v>
-      </c>
-      <c r="I9"/>
+      <c r="H9"/>
+      <c r="I9" t="n">
+        <v>40</v>
+      </c>
       <c r="J9"/>
       <c r="K9"/>
-      <c r="L9" t="n">
-        <v>96</v>
-      </c>
-      <c r="M9"/>
+      <c r="L9"/>
+      <c r="M9" t="n">
+        <v>40</v>
+      </c>
       <c r="N9"/>
       <c r="O9"/>
-      <c r="P9" t="n">
-        <v>152</v>
-      </c>
+      <c r="P9"/>
       <c r="Q9" t="n">
-        <v>344</v>
+        <v>160</v>
       </c>
       <c r="R9" t="n">
-        <v>2.19108280254777</v>
+        <v>240</v>
       </c>
     </row>
     <row r="10">
@@ -953,36 +930,34 @@
         <v>7092</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E10" t="n">
-        <v>2161</v>
+        <v>35011</v>
       </c>
       <c r="F10"/>
       <c r="G10"/>
-      <c r="H10" t="n">
-        <v>95</v>
-      </c>
-      <c r="I10"/>
+      <c r="H10"/>
+      <c r="I10" t="n">
+        <v>150</v>
+      </c>
       <c r="J10"/>
       <c r="K10"/>
-      <c r="L10" t="n">
-        <v>88</v>
-      </c>
-      <c r="M10"/>
+      <c r="L10"/>
+      <c r="M10" t="n">
+        <v>90</v>
+      </c>
       <c r="N10"/>
       <c r="O10"/>
-      <c r="P10" t="n">
-        <v>144</v>
-      </c>
+      <c r="P10"/>
       <c r="Q10" t="n">
-        <v>327</v>
+        <v>250</v>
       </c>
       <c r="R10" t="n">
-        <v>1.8268156424581</v>
+        <v>490</v>
       </c>
     </row>
     <row r="11">
@@ -993,67 +968,73 @@
         <v>7092</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E11" t="n">
-        <v>31111</v>
-      </c>
-      <c r="F11" t="n">
-        <v>40</v>
-      </c>
-      <c r="G11"/>
+        <v>35101</v>
+      </c>
+      <c r="F11"/>
+      <c r="G11" t="n">
+        <v>180</v>
+      </c>
       <c r="H11"/>
       <c r="I11"/>
-      <c r="J11" t="n">
-        <v>24</v>
-      </c>
-      <c r="K11"/>
+      <c r="J11"/>
+      <c r="K11" t="n">
+        <v>30</v>
+      </c>
       <c r="L11"/>
       <c r="M11"/>
-      <c r="N11" t="n">
-        <v>210</v>
-      </c>
-      <c r="O11"/>
+      <c r="N11"/>
+      <c r="O11" t="n">
+        <v>150</v>
+      </c>
       <c r="P11"/>
-      <c r="Q11" t="n">
-        <v>274</v>
-      </c>
+      <c r="Q11"/>
       <c r="R11" t="n">
-        <v>2.17460317460317</v>
+        <v>360</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B12" t="n">
         <v>7092</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D12" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12"/>
+        <v>32</v>
+      </c>
+      <c r="E12" t="n">
+        <v>35151</v>
+      </c>
       <c r="F12"/>
-      <c r="G12"/>
+      <c r="G12" t="n">
+        <v>148</v>
+      </c>
       <c r="H12"/>
       <c r="I12"/>
       <c r="J12"/>
-      <c r="K12"/>
+      <c r="K12" t="n">
+        <v>92</v>
+      </c>
       <c r="L12"/>
       <c r="M12"/>
       <c r="N12"/>
-      <c r="O12"/>
-      <c r="P12" t="n">
-        <v>0</v>
-      </c>
+      <c r="O12" t="n">
+        <v>180</v>
+      </c>
+      <c r="P12"/>
       <c r="Q12"/>
-      <c r="R12"/>
+      <c r="R12" t="n">
+        <v>420</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
@@ -1063,36 +1044,34 @@
         <v>7092</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E13" t="n">
-        <v>35011</v>
+        <v>37931</v>
       </c>
       <c r="F13"/>
       <c r="G13"/>
-      <c r="H13" t="n">
-        <v>200</v>
-      </c>
-      <c r="I13"/>
+      <c r="H13"/>
+      <c r="I13" t="n">
+        <v>100</v>
+      </c>
       <c r="J13"/>
       <c r="K13"/>
-      <c r="L13" t="n">
-        <v>150</v>
-      </c>
-      <c r="M13"/>
+      <c r="L13"/>
+      <c r="M13" t="n">
+        <v>100</v>
+      </c>
       <c r="N13"/>
       <c r="O13"/>
-      <c r="P13" t="n">
-        <v>175</v>
-      </c>
+      <c r="P13"/>
       <c r="Q13" t="n">
-        <v>525</v>
+        <v>300</v>
       </c>
       <c r="R13" t="n">
-        <v>2.11693548387097</v>
+        <v>500</v>
       </c>
     </row>
     <row r="14">
@@ -1103,36 +1082,34 @@
         <v>7092</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E14" t="n">
-        <v>35051</v>
-      </c>
-      <c r="F14" t="n">
-        <v>160</v>
-      </c>
-      <c r="G14"/>
+        <v>55781</v>
+      </c>
+      <c r="F14"/>
+      <c r="G14" t="n">
+        <v>60</v>
+      </c>
       <c r="H14"/>
       <c r="I14"/>
-      <c r="J14" t="n">
-        <v>110</v>
-      </c>
-      <c r="K14"/>
+      <c r="J14"/>
+      <c r="K14" t="n">
+        <v>30</v>
+      </c>
       <c r="L14"/>
       <c r="M14"/>
-      <c r="N14" t="n">
-        <v>160</v>
-      </c>
-      <c r="O14"/>
+      <c r="N14"/>
+      <c r="O14" t="n">
+        <v>310</v>
+      </c>
       <c r="P14"/>
-      <c r="Q14" t="n">
-        <v>430</v>
-      </c>
+      <c r="Q14"/>
       <c r="R14" t="n">
-        <v>2.1608040201005</v>
+        <v>400</v>
       </c>
     </row>
     <row r="15">
@@ -1143,36 +1120,34 @@
         <v>7092</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E15" t="n">
-        <v>35091</v>
-      </c>
-      <c r="F15" t="n">
-        <v>167</v>
-      </c>
-      <c r="G15"/>
+        <v>57011</v>
+      </c>
+      <c r="F15"/>
+      <c r="G15" t="n">
+        <v>165</v>
+      </c>
       <c r="H15"/>
       <c r="I15"/>
-      <c r="J15" t="n">
-        <v>105</v>
-      </c>
-      <c r="K15"/>
+      <c r="J15"/>
+      <c r="K15" t="n">
+        <v>50</v>
+      </c>
       <c r="L15"/>
       <c r="M15"/>
-      <c r="N15" t="n">
-        <v>158</v>
-      </c>
-      <c r="O15"/>
+      <c r="N15"/>
+      <c r="O15" t="n">
+        <v>60</v>
+      </c>
       <c r="P15"/>
-      <c r="Q15" t="n">
-        <v>430</v>
-      </c>
+      <c r="Q15"/>
       <c r="R15" t="n">
-        <v>2.32432432432432</v>
+        <v>275</v>
       </c>
     </row>
     <row r="16">
@@ -1183,36 +1158,34 @@
         <v>7092</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E16" t="n">
-        <v>35151</v>
-      </c>
-      <c r="F16" t="n">
-        <v>158</v>
-      </c>
-      <c r="G16"/>
+        <v>57041</v>
+      </c>
+      <c r="F16"/>
+      <c r="G16" t="n">
+        <v>90</v>
+      </c>
       <c r="H16"/>
       <c r="I16"/>
-      <c r="J16" t="n">
-        <v>82</v>
-      </c>
-      <c r="K16"/>
+      <c r="J16"/>
+      <c r="K16" t="n">
+        <v>30</v>
+      </c>
       <c r="L16"/>
       <c r="M16"/>
-      <c r="N16" t="n">
-        <v>200</v>
-      </c>
-      <c r="O16"/>
+      <c r="N16"/>
+      <c r="O16" t="n">
+        <v>170</v>
+      </c>
       <c r="P16"/>
-      <c r="Q16" t="n">
-        <v>440</v>
-      </c>
+      <c r="Q16"/>
       <c r="R16" t="n">
-        <v>2.44444444444444</v>
+        <v>290</v>
       </c>
     </row>
     <row r="17">
@@ -1223,36 +1196,34 @@
         <v>7092</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="D17" t="s">
         <v>37</v>
       </c>
       <c r="E17" t="n">
-        <v>2817</v>
-      </c>
-      <c r="F17" t="n">
-        <v>120</v>
-      </c>
-      <c r="G17"/>
+        <v>57821</v>
+      </c>
+      <c r="F17"/>
+      <c r="G17" t="n">
+        <v>160</v>
+      </c>
       <c r="H17"/>
       <c r="I17"/>
-      <c r="J17" t="n">
-        <v>200</v>
-      </c>
-      <c r="K17"/>
+      <c r="J17"/>
+      <c r="K17" t="n">
+        <v>60</v>
+      </c>
       <c r="L17"/>
       <c r="M17"/>
-      <c r="N17" t="n">
-        <v>1170</v>
-      </c>
-      <c r="O17"/>
+      <c r="N17"/>
+      <c r="O17" t="n">
+        <v>80</v>
+      </c>
       <c r="P17"/>
-      <c r="Q17" t="n">
-        <v>1490</v>
-      </c>
+      <c r="Q17"/>
       <c r="R17" t="n">
-        <v>2.15317919075145</v>
+        <v>300</v>
       </c>
     </row>
     <row r="18">
@@ -1263,47 +1234,45 @@
         <v>7092</v>
       </c>
       <c r="C18" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D18" t="s">
         <v>38</v>
       </c>
       <c r="E18" t="n">
-        <v>37061</v>
-      </c>
-      <c r="F18" t="n">
-        <v>100</v>
-      </c>
-      <c r="G18"/>
+        <v>5593</v>
+      </c>
+      <c r="F18"/>
+      <c r="G18" t="n">
+        <v>128</v>
+      </c>
       <c r="H18"/>
       <c r="I18"/>
-      <c r="J18" t="n">
-        <v>55</v>
-      </c>
-      <c r="K18"/>
+      <c r="J18"/>
+      <c r="K18" t="n">
+        <v>125</v>
+      </c>
       <c r="L18"/>
       <c r="M18"/>
-      <c r="N18" t="n">
-        <v>72</v>
-      </c>
-      <c r="O18"/>
+      <c r="N18"/>
+      <c r="O18" t="n">
+        <v>135</v>
+      </c>
       <c r="P18"/>
-      <c r="Q18" t="n">
-        <v>227</v>
-      </c>
+      <c r="Q18"/>
       <c r="R18" t="n">
-        <v>2.22549019607843</v>
+        <v>388</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B19" t="n">
         <v>7092</v>
       </c>
       <c r="C19" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D19" t="s">
         <v>39</v>
@@ -1311,33 +1280,31 @@
       <c r="E19" t="n">
         <v>37221</v>
       </c>
-      <c r="F19" t="n">
-        <v>130</v>
-      </c>
+      <c r="F19"/>
       <c r="G19"/>
       <c r="H19"/>
-      <c r="I19"/>
-      <c r="J19" t="n">
-        <v>65</v>
-      </c>
+      <c r="I19" t="n">
+        <v>85</v>
+      </c>
+      <c r="J19"/>
       <c r="K19"/>
       <c r="L19"/>
-      <c r="M19"/>
-      <c r="N19" t="n">
-        <v>155</v>
-      </c>
+      <c r="M19" t="n">
+        <v>85</v>
+      </c>
+      <c r="N19"/>
       <c r="O19"/>
       <c r="P19"/>
       <c r="Q19" t="n">
+        <v>180</v>
+      </c>
+      <c r="R19" t="n">
         <v>350</v>
-      </c>
-      <c r="R19" t="n">
-        <v>2.03488372093023</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B20" t="n">
         <v>7092</v>
@@ -1349,35 +1316,33 @@
         <v>40</v>
       </c>
       <c r="E20" t="n">
-        <v>37311</v>
-      </c>
-      <c r="F20" t="n">
-        <v>60</v>
-      </c>
+        <v>2218</v>
+      </c>
+      <c r="F20"/>
       <c r="G20"/>
       <c r="H20"/>
-      <c r="I20"/>
-      <c r="J20" t="n">
-        <v>27</v>
-      </c>
+      <c r="I20" t="n">
+        <v>370</v>
+      </c>
+      <c r="J20"/>
       <c r="K20"/>
       <c r="L20"/>
-      <c r="M20"/>
-      <c r="N20" t="n">
-        <v>113</v>
-      </c>
+      <c r="M20" t="n">
+        <v>450</v>
+      </c>
+      <c r="N20"/>
       <c r="O20"/>
       <c r="P20"/>
       <c r="Q20" t="n">
-        <v>200</v>
+        <v>270</v>
       </c>
       <c r="R20" t="n">
-        <v>2.10526315789474</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B21" t="n">
         <v>7092</v>
@@ -1389,30 +1354,28 @@
         <v>41</v>
       </c>
       <c r="E21" t="n">
-        <v>37931</v>
+        <v>3967</v>
       </c>
       <c r="F21"/>
       <c r="G21"/>
-      <c r="H21" t="n">
-        <v>150</v>
-      </c>
-      <c r="I21"/>
+      <c r="H21"/>
+      <c r="I21" t="n">
+        <v>120</v>
+      </c>
       <c r="J21"/>
       <c r="K21"/>
-      <c r="L21" t="n">
-        <v>181</v>
-      </c>
-      <c r="M21"/>
+      <c r="L21"/>
+      <c r="M21" t="n">
+        <v>440</v>
+      </c>
       <c r="N21"/>
       <c r="O21"/>
-      <c r="P21" t="n">
-        <v>203</v>
-      </c>
+      <c r="P21"/>
       <c r="Q21" t="n">
-        <v>534</v>
+        <v>680</v>
       </c>
       <c r="R21" t="n">
-        <v>2.26271186440678</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="22">
@@ -1423,36 +1386,34 @@
         <v>7092</v>
       </c>
       <c r="C22" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D22" t="s">
         <v>42</v>
       </c>
       <c r="E22" t="n">
-        <v>55781</v>
-      </c>
-      <c r="F22" t="n">
-        <v>135</v>
-      </c>
-      <c r="G22"/>
+        <v>2103</v>
+      </c>
+      <c r="F22"/>
+      <c r="G22" t="n">
+        <v>60</v>
+      </c>
       <c r="H22"/>
       <c r="I22"/>
-      <c r="J22" t="n">
-        <v>130</v>
-      </c>
-      <c r="K22"/>
+      <c r="J22"/>
+      <c r="K22" t="n">
+        <v>70</v>
+      </c>
       <c r="L22"/>
       <c r="M22"/>
-      <c r="N22" t="n">
-        <v>195</v>
-      </c>
-      <c r="O22"/>
+      <c r="N22"/>
+      <c r="O22" t="n">
+        <v>60</v>
+      </c>
       <c r="P22"/>
-      <c r="Q22" t="n">
-        <v>460</v>
-      </c>
+      <c r="Q22"/>
       <c r="R22" t="n">
-        <v>2.24390243902439</v>
+        <v>190</v>
       </c>
     </row>
     <row r="23">
@@ -1463,36 +1424,34 @@
         <v>7092</v>
       </c>
       <c r="C23" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D23" t="s">
         <v>43</v>
       </c>
       <c r="E23" t="n">
-        <v>57031</v>
-      </c>
-      <c r="F23" t="n">
-        <v>150</v>
-      </c>
-      <c r="G23"/>
+        <v>2732</v>
+      </c>
+      <c r="F23"/>
+      <c r="G23" t="n">
+        <v>210</v>
+      </c>
       <c r="H23"/>
       <c r="I23"/>
-      <c r="J23" t="n">
-        <v>40</v>
-      </c>
-      <c r="K23"/>
+      <c r="J23"/>
+      <c r="K23" t="n">
+        <v>50</v>
+      </c>
       <c r="L23"/>
       <c r="M23"/>
-      <c r="N23" t="n">
-        <v>90</v>
-      </c>
-      <c r="O23"/>
+      <c r="N23"/>
+      <c r="O23" t="n">
+        <v>60</v>
+      </c>
       <c r="P23"/>
-      <c r="Q23" t="n">
-        <v>280</v>
-      </c>
+      <c r="Q23"/>
       <c r="R23" t="n">
-        <v>2.35294117647059</v>
+        <v>320</v>
       </c>
     </row>
     <row r="24">
@@ -1503,36 +1462,34 @@
         <v>7092</v>
       </c>
       <c r="C24" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D24" t="s">
         <v>44</v>
       </c>
       <c r="E24" t="n">
-        <v>57041</v>
-      </c>
-      <c r="F24" t="n">
-        <v>160</v>
-      </c>
+        <v>35091</v>
+      </c>
+      <c r="F24"/>
       <c r="G24"/>
       <c r="H24"/>
-      <c r="I24"/>
-      <c r="J24" t="n">
-        <v>45</v>
-      </c>
+      <c r="I24" t="n">
+        <v>175</v>
+      </c>
+      <c r="J24"/>
       <c r="K24"/>
       <c r="L24"/>
-      <c r="M24"/>
-      <c r="N24" t="n">
-        <v>90</v>
-      </c>
+      <c r="M24" t="n">
+        <v>30</v>
+      </c>
+      <c r="N24"/>
       <c r="O24"/>
       <c r="P24"/>
       <c r="Q24" t="n">
-        <v>295</v>
+        <v>155</v>
       </c>
       <c r="R24" t="n">
-        <v>2.45833333333333</v>
+        <v>360</v>
       </c>
     </row>
     <row r="25">
@@ -1543,36 +1500,34 @@
         <v>7092</v>
       </c>
       <c r="C25" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D25" t="s">
         <v>45</v>
       </c>
       <c r="E25" t="n">
-        <v>57101</v>
+        <v>2343</v>
       </c>
       <c r="F25"/>
       <c r="G25"/>
-      <c r="H25" t="n">
-        <v>40</v>
-      </c>
-      <c r="I25"/>
+      <c r="H25"/>
+      <c r="I25" t="n">
+        <v>60</v>
+      </c>
       <c r="J25"/>
       <c r="K25"/>
-      <c r="L25" t="n">
-        <v>32</v>
-      </c>
-      <c r="M25"/>
+      <c r="L25"/>
+      <c r="M25" t="n">
+        <v>140</v>
+      </c>
       <c r="N25"/>
       <c r="O25"/>
-      <c r="P25" t="n">
-        <v>180</v>
-      </c>
+      <c r="P25"/>
       <c r="Q25" t="n">
-        <v>252</v>
+        <v>150</v>
       </c>
       <c r="R25" t="n">
-        <v>2.17241379310345</v>
+        <v>350</v>
       </c>
     </row>
     <row r="26">
@@ -1583,81 +1538,77 @@
         <v>7092</v>
       </c>
       <c r="C26" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D26" t="s">
         <v>46</v>
       </c>
       <c r="E26" t="n">
-        <v>57111</v>
-      </c>
-      <c r="F26" t="n">
-        <v>150</v>
-      </c>
-      <c r="G26"/>
+        <v>52011</v>
+      </c>
+      <c r="F26"/>
+      <c r="G26" t="n">
+        <v>64</v>
+      </c>
       <c r="H26"/>
       <c r="I26"/>
-      <c r="J26" t="n">
-        <v>40</v>
-      </c>
-      <c r="K26"/>
+      <c r="J26"/>
+      <c r="K26" t="n">
+        <v>32</v>
+      </c>
       <c r="L26"/>
       <c r="M26"/>
-      <c r="N26" t="n">
-        <v>90</v>
-      </c>
-      <c r="O26"/>
+      <c r="N26"/>
+      <c r="O26" t="n">
+        <v>64</v>
+      </c>
       <c r="P26"/>
-      <c r="Q26" t="n">
-        <v>280</v>
-      </c>
+      <c r="Q26"/>
       <c r="R26" t="n">
-        <v>2.35294117647059</v>
+        <v>160</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B27" t="n">
         <v>7092</v>
       </c>
       <c r="C27" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D27" t="s">
         <v>47</v>
       </c>
       <c r="E27" t="n">
-        <v>38671</v>
-      </c>
-      <c r="F27" t="n">
-        <v>125</v>
-      </c>
+        <v>35051</v>
+      </c>
+      <c r="F27"/>
       <c r="G27"/>
       <c r="H27"/>
-      <c r="I27"/>
-      <c r="J27" t="n">
-        <v>103</v>
-      </c>
+      <c r="I27" t="n">
+        <v>180</v>
+      </c>
+      <c r="J27"/>
       <c r="K27"/>
       <c r="L27"/>
-      <c r="M27"/>
-      <c r="N27" t="n">
-        <v>160</v>
-      </c>
+      <c r="M27" t="n">
+        <v>40</v>
+      </c>
+      <c r="N27"/>
       <c r="O27"/>
       <c r="P27"/>
       <c r="Q27" t="n">
-        <v>388</v>
+        <v>160</v>
       </c>
       <c r="R27" t="n">
-        <v>2.0972972972973</v>
+        <v>380</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B28" t="n">
         <v>7092</v>
@@ -1669,30 +1620,28 @@
         <v>48</v>
       </c>
       <c r="E28" t="n">
-        <v>6463</v>
-      </c>
-      <c r="F28" t="n">
-        <v>140</v>
-      </c>
+        <v>2780</v>
+      </c>
+      <c r="F28"/>
       <c r="G28"/>
       <c r="H28"/>
-      <c r="I28"/>
-      <c r="J28" t="n">
-        <v>50</v>
-      </c>
+      <c r="I28" t="n">
+        <v>150</v>
+      </c>
+      <c r="J28"/>
       <c r="K28"/>
       <c r="L28"/>
-      <c r="M28"/>
-      <c r="N28" t="n">
-        <v>180</v>
-      </c>
+      <c r="M28" t="n">
+        <v>650</v>
+      </c>
+      <c r="N28"/>
       <c r="O28"/>
       <c r="P28"/>
       <c r="Q28" t="n">
-        <v>370</v>
+        <v>600</v>
       </c>
       <c r="R28" t="n">
-        <v>2.17647058823529</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="29">
@@ -1709,30 +1658,28 @@
         <v>49</v>
       </c>
       <c r="E29" t="n">
-        <v>2218</v>
+        <v>2783</v>
       </c>
       <c r="F29"/>
       <c r="G29"/>
-      <c r="H29" t="n">
-        <v>77</v>
-      </c>
-      <c r="I29"/>
+      <c r="H29"/>
+      <c r="I29" t="n">
+        <v>100</v>
+      </c>
       <c r="J29"/>
       <c r="K29"/>
-      <c r="L29" t="n">
-        <v>122</v>
-      </c>
-      <c r="M29"/>
+      <c r="L29"/>
+      <c r="M29" t="n">
+        <v>650</v>
+      </c>
       <c r="N29"/>
       <c r="O29"/>
-      <c r="P29" t="n">
-        <v>145</v>
-      </c>
+      <c r="P29"/>
       <c r="Q29" t="n">
-        <v>344</v>
+        <v>650</v>
       </c>
       <c r="R29" t="n">
-        <v>2.15</v>
+        <v>1400</v>
       </c>
     </row>
     <row r="30">
@@ -1743,36 +1690,34 @@
         <v>7092</v>
       </c>
       <c r="C30" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D30" t="s">
         <v>50</v>
       </c>
       <c r="E30" t="n">
-        <v>3967</v>
+        <v>37061</v>
       </c>
       <c r="F30"/>
       <c r="G30"/>
-      <c r="H30" t="n">
-        <v>100</v>
-      </c>
-      <c r="I30"/>
+      <c r="H30"/>
+      <c r="I30" t="n">
+        <v>70</v>
+      </c>
       <c r="J30"/>
       <c r="K30"/>
-      <c r="L30" t="n">
-        <v>72</v>
-      </c>
-      <c r="M30"/>
+      <c r="L30"/>
+      <c r="M30" t="n">
+        <v>20</v>
+      </c>
       <c r="N30"/>
       <c r="O30"/>
-      <c r="P30" t="n">
-        <v>154</v>
-      </c>
+      <c r="P30"/>
       <c r="Q30" t="n">
-        <v>326</v>
+        <v>105</v>
       </c>
       <c r="R30" t="n">
-        <v>2.07643312101911</v>
+        <v>195</v>
       </c>
     </row>
     <row r="31">
@@ -1783,234 +1728,224 @@
         <v>7092</v>
       </c>
       <c r="C31" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D31" t="s">
         <v>51</v>
       </c>
       <c r="E31" t="n">
-        <v>2277</v>
-      </c>
-      <c r="F31" t="n">
-        <v>80</v>
-      </c>
-      <c r="G31"/>
+        <v>4100</v>
+      </c>
+      <c r="F31"/>
+      <c r="G31" t="n">
+        <v>70</v>
+      </c>
       <c r="H31"/>
       <c r="I31"/>
-      <c r="J31" t="n">
-        <v>25</v>
-      </c>
-      <c r="K31"/>
+      <c r="J31"/>
+      <c r="K31" t="n">
+        <v>16</v>
+      </c>
       <c r="L31"/>
       <c r="M31"/>
-      <c r="N31" t="n">
-        <v>106</v>
-      </c>
-      <c r="O31"/>
+      <c r="N31"/>
+      <c r="O31" t="n">
+        <v>30</v>
+      </c>
       <c r="P31"/>
-      <c r="Q31" t="n">
-        <v>211</v>
-      </c>
+      <c r="Q31"/>
       <c r="R31" t="n">
-        <v>2.11</v>
+        <v>116</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B32" t="n">
         <v>7092</v>
       </c>
       <c r="C32" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D32" t="s">
         <v>52</v>
       </c>
       <c r="E32" t="n">
-        <v>2343</v>
+        <v>52771</v>
       </c>
       <c r="F32"/>
-      <c r="G32"/>
-      <c r="H32" t="n">
-        <v>150</v>
-      </c>
+      <c r="G32" t="n">
+        <v>79</v>
+      </c>
+      <c r="H32"/>
       <c r="I32"/>
       <c r="J32"/>
-      <c r="K32"/>
-      <c r="L32" t="n">
-        <v>80</v>
-      </c>
+      <c r="K32" t="n">
+        <v>57</v>
+      </c>
+      <c r="L32"/>
       <c r="M32"/>
       <c r="N32"/>
-      <c r="O32"/>
-      <c r="P32" t="n">
-        <v>158</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>388</v>
-      </c>
+      <c r="O32" t="n">
+        <v>114</v>
+      </c>
+      <c r="P32"/>
+      <c r="Q32"/>
       <c r="R32" t="n">
-        <v>2.17977528089888</v>
+        <v>250</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B33" t="n">
         <v>7092</v>
       </c>
       <c r="C33" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D33" t="s">
         <v>53</v>
       </c>
       <c r="E33" t="n">
-        <v>52011</v>
-      </c>
-      <c r="F33" t="n">
-        <v>100</v>
-      </c>
+        <v>2516</v>
+      </c>
+      <c r="F33"/>
       <c r="G33"/>
       <c r="H33"/>
-      <c r="I33"/>
-      <c r="J33" t="n">
-        <v>30</v>
-      </c>
+      <c r="I33" t="n">
+        <v>110</v>
+      </c>
+      <c r="J33"/>
       <c r="K33"/>
       <c r="L33"/>
-      <c r="M33"/>
-      <c r="N33" t="n">
-        <v>30</v>
-      </c>
+      <c r="M33" t="n">
+        <v>80</v>
+      </c>
+      <c r="N33"/>
       <c r="O33"/>
       <c r="P33"/>
       <c r="Q33" t="n">
-        <v>160</v>
+        <v>200</v>
       </c>
       <c r="R33" t="n">
-        <v>2.25352112676056</v>
+        <v>390</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B34" t="n">
         <v>7092</v>
       </c>
       <c r="C34" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="D34" t="s">
         <v>54</v>
       </c>
       <c r="E34" t="n">
-        <v>2783</v>
+        <v>2565</v>
       </c>
       <c r="F34"/>
-      <c r="G34"/>
-      <c r="H34" t="n">
-        <v>275</v>
-      </c>
+      <c r="G34" t="n">
+        <v>120</v>
+      </c>
+      <c r="H34"/>
       <c r="I34"/>
       <c r="J34"/>
-      <c r="K34"/>
-      <c r="L34" t="n">
-        <v>645</v>
-      </c>
+      <c r="K34" t="n">
+        <v>60</v>
+      </c>
+      <c r="L34"/>
       <c r="M34"/>
       <c r="N34"/>
-      <c r="O34"/>
-      <c r="P34" t="n">
-        <v>500</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>1420</v>
-      </c>
-      <c r="R34"/>
+      <c r="O34" t="n">
+        <v>180</v>
+      </c>
+      <c r="P34"/>
+      <c r="Q34"/>
+      <c r="R34" t="n">
+        <v>360</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B35" t="n">
         <v>7092</v>
       </c>
       <c r="C35" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D35" t="s">
         <v>55</v>
       </c>
       <c r="E35" t="n">
-        <v>28931</v>
-      </c>
-      <c r="F35" t="n">
-        <v>88</v>
-      </c>
+        <v>58061</v>
+      </c>
+      <c r="F35"/>
       <c r="G35"/>
       <c r="H35"/>
-      <c r="I35"/>
-      <c r="J35" t="n">
-        <v>18</v>
-      </c>
+      <c r="I35" t="n">
+        <v>180</v>
+      </c>
+      <c r="J35"/>
       <c r="K35"/>
       <c r="L35"/>
-      <c r="M35"/>
-      <c r="N35" t="n">
-        <v>33</v>
-      </c>
+      <c r="M35" t="n">
+        <v>90</v>
+      </c>
+      <c r="N35"/>
       <c r="O35"/>
       <c r="P35"/>
       <c r="Q35" t="n">
-        <v>139</v>
+        <v>245</v>
       </c>
       <c r="R35" t="n">
-        <v>1.82894736842105</v>
+        <v>515</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B36" t="n">
         <v>7092</v>
       </c>
       <c r="C36" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D36" t="s">
         <v>56</v>
       </c>
       <c r="E36" t="n">
-        <v>28031</v>
+        <v>6207</v>
       </c>
       <c r="F36"/>
-      <c r="G36"/>
-      <c r="H36" t="n">
-        <v>37</v>
-      </c>
+      <c r="G36" t="n">
+        <v>140</v>
+      </c>
+      <c r="H36"/>
       <c r="I36"/>
       <c r="J36"/>
-      <c r="K36"/>
-      <c r="L36" t="n">
-        <v>35</v>
-      </c>
+      <c r="K36" t="n">
+        <v>20</v>
+      </c>
+      <c r="L36"/>
       <c r="M36"/>
       <c r="N36"/>
-      <c r="O36"/>
-      <c r="P36" t="n">
-        <v>192</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>264</v>
-      </c>
+      <c r="O36" t="n">
+        <v>20</v>
+      </c>
+      <c r="P36"/>
+      <c r="Q36"/>
       <c r="R36" t="n">
-        <v>2.03076923076923</v>
+        <v>180</v>
       </c>
     </row>
     <row r="37">
@@ -2021,39 +1956,39 @@
         <v>7092</v>
       </c>
       <c r="C37" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="D37" t="s">
         <v>57</v>
       </c>
       <c r="E37" t="n">
-        <v>2814</v>
-      </c>
-      <c r="F37" t="n">
-        <v>120</v>
-      </c>
-      <c r="G37"/>
+        <v>2809</v>
+      </c>
+      <c r="F37"/>
+      <c r="G37" t="n">
+        <v>300</v>
+      </c>
       <c r="H37"/>
       <c r="I37"/>
-      <c r="J37" t="n">
-        <v>360</v>
-      </c>
-      <c r="K37"/>
+      <c r="J37"/>
+      <c r="K37" t="n">
+        <v>72</v>
+      </c>
       <c r="L37"/>
       <c r="M37"/>
-      <c r="N37" t="n">
-        <v>1010</v>
-      </c>
-      <c r="O37"/>
+      <c r="N37"/>
+      <c r="O37" t="n">
+        <v>100</v>
+      </c>
       <c r="P37"/>
-      <c r="Q37" t="n">
-        <v>1490</v>
-      </c>
-      <c r="R37"/>
+      <c r="Q37"/>
+      <c r="R37" t="n">
+        <v>472</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B38" t="n">
         <v>7092</v>
@@ -2065,30 +2000,28 @@
         <v>58</v>
       </c>
       <c r="E38" t="n">
-        <v>2516</v>
+        <v>2814</v>
       </c>
       <c r="F38"/>
-      <c r="G38"/>
-      <c r="H38" t="n">
-        <v>125</v>
-      </c>
+      <c r="G38" t="n">
+        <v>120</v>
+      </c>
+      <c r="H38"/>
       <c r="I38"/>
       <c r="J38"/>
-      <c r="K38"/>
-      <c r="L38" t="n">
-        <v>65</v>
-      </c>
+      <c r="K38" t="n">
+        <v>400</v>
+      </c>
+      <c r="L38"/>
       <c r="M38"/>
       <c r="N38"/>
-      <c r="O38"/>
-      <c r="P38" t="n">
-        <v>200</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>390</v>
-      </c>
+      <c r="O38" t="n">
+        <v>900</v>
+      </c>
+      <c r="P38"/>
+      <c r="Q38"/>
       <c r="R38" t="n">
-        <v>1.82242990654206</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="39">
@@ -2105,30 +2038,28 @@
         <v>59</v>
       </c>
       <c r="E39" t="n">
-        <v>32961</v>
-      </c>
-      <c r="F39" t="n">
-        <v>73</v>
-      </c>
-      <c r="G39"/>
+        <v>2817</v>
+      </c>
+      <c r="F39"/>
+      <c r="G39" t="n">
+        <v>160</v>
+      </c>
       <c r="H39"/>
       <c r="I39"/>
-      <c r="J39" t="n">
-        <v>40</v>
-      </c>
-      <c r="K39"/>
+      <c r="J39"/>
+      <c r="K39" t="n">
+        <v>240</v>
+      </c>
       <c r="L39"/>
       <c r="M39"/>
-      <c r="N39" t="n">
-        <v>139</v>
-      </c>
-      <c r="O39"/>
+      <c r="N39"/>
+      <c r="O39" t="n">
+        <v>1020</v>
+      </c>
       <c r="P39"/>
-      <c r="Q39" t="n">
-        <v>252</v>
-      </c>
+      <c r="Q39"/>
       <c r="R39" t="n">
-        <v>2.21052631578947</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="40">
@@ -2139,74 +2070,72 @@
         <v>7092</v>
       </c>
       <c r="C40" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="D40" t="s">
         <v>60</v>
       </c>
       <c r="E40" t="n">
-        <v>2780</v>
+        <v>38321</v>
       </c>
       <c r="F40"/>
       <c r="G40"/>
-      <c r="H40" t="n">
-        <v>150</v>
-      </c>
-      <c r="I40"/>
+      <c r="H40"/>
+      <c r="I40" t="n">
+        <v>140</v>
+      </c>
       <c r="J40"/>
       <c r="K40"/>
-      <c r="L40" t="n">
-        <v>610</v>
-      </c>
-      <c r="M40"/>
+      <c r="L40"/>
+      <c r="M40" t="n">
+        <v>56</v>
+      </c>
       <c r="N40"/>
       <c r="O40"/>
-      <c r="P40" t="n">
-        <v>660</v>
-      </c>
+      <c r="P40"/>
       <c r="Q40" t="n">
-        <v>1420</v>
-      </c>
-      <c r="R40"/>
+        <v>35</v>
+      </c>
+      <c r="R40" t="n">
+        <v>231</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B41" t="n">
         <v>7092</v>
       </c>
       <c r="C41" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D41" t="s">
         <v>61</v>
       </c>
       <c r="E41" t="n">
-        <v>58061</v>
+        <v>58031</v>
       </c>
       <c r="F41"/>
-      <c r="G41"/>
-      <c r="H41" t="n">
-        <v>138</v>
-      </c>
+      <c r="G41" t="n">
+        <v>146</v>
+      </c>
+      <c r="H41"/>
       <c r="I41"/>
       <c r="J41"/>
-      <c r="K41"/>
-      <c r="L41" t="n">
-        <v>45</v>
-      </c>
+      <c r="K41" t="n">
+        <v>40</v>
+      </c>
+      <c r="L41"/>
       <c r="M41"/>
       <c r="N41"/>
-      <c r="O41"/>
-      <c r="P41" t="n">
-        <v>100</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>283</v>
-      </c>
+      <c r="O41" t="n">
+        <v>75</v>
+      </c>
+      <c r="P41"/>
+      <c r="Q41"/>
       <c r="R41" t="n">
-        <v>2.17692307692308</v>
+        <v>261</v>
       </c>
     </row>
     <row r="42">
@@ -2217,36 +2146,34 @@
         <v>7092</v>
       </c>
       <c r="C42" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D42" t="s">
         <v>62</v>
       </c>
       <c r="E42" t="n">
-        <v>6207</v>
-      </c>
-      <c r="F42" t="n">
-        <v>136</v>
-      </c>
-      <c r="G42"/>
+        <v>6255</v>
+      </c>
+      <c r="F42"/>
+      <c r="G42" t="n">
+        <v>220</v>
+      </c>
       <c r="H42"/>
       <c r="I42"/>
-      <c r="J42" t="n">
-        <v>36</v>
-      </c>
-      <c r="K42"/>
+      <c r="J42"/>
+      <c r="K42" t="n">
+        <v>75</v>
+      </c>
       <c r="L42"/>
       <c r="M42"/>
-      <c r="N42" t="n">
-        <v>40</v>
-      </c>
-      <c r="O42"/>
+      <c r="N42"/>
+      <c r="O42" t="n">
+        <v>300</v>
+      </c>
       <c r="P42"/>
-      <c r="Q42" t="n">
-        <v>212</v>
-      </c>
+      <c r="Q42"/>
       <c r="R42" t="n">
-        <v>2.14141414141414</v>
+        <v>595</v>
       </c>
     </row>
     <row r="43">
@@ -2257,156 +2184,34 @@
         <v>7092</v>
       </c>
       <c r="C43" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D43" t="s">
         <v>63</v>
       </c>
       <c r="E43" t="n">
-        <v>2809</v>
-      </c>
-      <c r="F43" t="n">
-        <v>132</v>
-      </c>
-      <c r="G43"/>
+        <v>6257</v>
+      </c>
+      <c r="F43"/>
+      <c r="G43" t="n">
+        <v>30</v>
+      </c>
       <c r="H43"/>
       <c r="I43"/>
-      <c r="J43" t="n">
-        <v>108</v>
-      </c>
-      <c r="K43"/>
+      <c r="J43"/>
+      <c r="K43" t="n">
+        <v>30</v>
+      </c>
       <c r="L43"/>
       <c r="M43"/>
-      <c r="N43" t="n">
-        <v>247</v>
-      </c>
-      <c r="O43"/>
+      <c r="N43"/>
+      <c r="O43" t="n">
+        <v>30</v>
+      </c>
       <c r="P43"/>
-      <c r="Q43" t="n">
-        <v>487</v>
-      </c>
+      <c r="Q43"/>
       <c r="R43" t="n">
-        <v>2.17410714285714</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s">
-        <v>18</v>
-      </c>
-      <c r="B44" t="n">
-        <v>7092</v>
-      </c>
-      <c r="C44" t="s">
-        <v>19</v>
-      </c>
-      <c r="D44" t="s">
-        <v>64</v>
-      </c>
-      <c r="E44" t="n">
-        <v>3851</v>
-      </c>
-      <c r="F44"/>
-      <c r="G44"/>
-      <c r="H44" t="n">
-        <v>138</v>
-      </c>
-      <c r="I44"/>
-      <c r="J44"/>
-      <c r="K44"/>
-      <c r="L44" t="n">
-        <v>128</v>
-      </c>
-      <c r="M44"/>
-      <c r="N44"/>
-      <c r="O44"/>
-      <c r="P44" t="n">
-        <v>360</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>626</v>
-      </c>
-      <c r="R44" t="n">
-        <v>2.01935483870968</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="s">
-        <v>21</v>
-      </c>
-      <c r="B45" t="n">
-        <v>7092</v>
-      </c>
-      <c r="C45" t="s">
-        <v>19</v>
-      </c>
-      <c r="D45" t="s">
-        <v>65</v>
-      </c>
-      <c r="E45" t="n">
-        <v>28041</v>
-      </c>
-      <c r="F45" t="n">
-        <v>60</v>
-      </c>
-      <c r="G45"/>
-      <c r="H45"/>
-      <c r="I45"/>
-      <c r="J45" t="n">
-        <v>85</v>
-      </c>
-      <c r="K45"/>
-      <c r="L45"/>
-      <c r="M45"/>
-      <c r="N45" t="n">
-        <v>125</v>
-      </c>
-      <c r="O45"/>
-      <c r="P45"/>
-      <c r="Q45" t="n">
-        <v>270</v>
-      </c>
-      <c r="R45" t="n">
-        <v>2.25</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s">
-        <v>21</v>
-      </c>
-      <c r="B46" t="n">
-        <v>7092</v>
-      </c>
-      <c r="C46" t="s">
-        <v>19</v>
-      </c>
-      <c r="D46" t="s">
-        <v>66</v>
-      </c>
-      <c r="E46" t="n">
-        <v>58031</v>
-      </c>
-      <c r="F46" t="n">
-        <v>170</v>
-      </c>
-      <c r="G46"/>
-      <c r="H46"/>
-      <c r="I46"/>
-      <c r="J46" t="n">
-        <v>45</v>
-      </c>
-      <c r="K46"/>
-      <c r="L46"/>
-      <c r="M46"/>
-      <c r="N46" t="n">
-        <v>60</v>
-      </c>
-      <c r="O46"/>
-      <c r="P46"/>
-      <c r="Q46" t="n">
-        <v>275</v>
-      </c>
-      <c r="R46" t="n">
-        <v>2.06766917293233</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>
